--- a/Fase 2/Evidencias proyecto/evidencias documentacion/sprint_1/impediment_log_sprint_1.xlsx
+++ b/Fase 2/Evidencias proyecto/evidencias documentacion/sprint_1/impediment_log_sprint_1.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
-  <si>
-    <t>IMPEDIMENT LOG - SPRINT 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
   <si>
     <t>Tarea</t>
   </si>
@@ -37,76 +34,161 @@
     <t>Hito</t>
   </si>
   <si>
-    <t>Definir campos obligatorios del registro</t>
-  </si>
-  <si>
-    <t>P1</t>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>Levantamiento de requerimientos</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Sebastián Medina</t>
+  </si>
+  <si>
+    <t>Completada</t>
+  </si>
+  <si>
+    <t>Requerimientos iniciales</t>
+  </si>
+  <si>
+    <t>Esto retrasó la construcción del Product Backlog.</t>
+  </si>
+  <si>
+    <t>Reunión de Kickoff y reuniones de alineación</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Luis Troncoso</t>
+  </si>
+  <si>
+    <t>Inicio formal del sprint</t>
+  </si>
+  <si>
+    <t>La reunión debió reagendarse dos veces.</t>
+  </si>
+  <si>
+    <t>Prototipo inicial del diseño</t>
+  </si>
+  <si>
+    <t>Héctor Domingo</t>
+  </si>
+  <si>
+    <t>Diseño preliminar</t>
+  </si>
+  <si>
+    <t>Falta de branding oficial dificultó la creación de la línea gráfica.</t>
+  </si>
+  <si>
+    <t>Definir arquitectura del software</t>
   </si>
   <si>
     <t>Jehison Arancibia</t>
   </si>
   <si>
-    <t>Completada</t>
-  </si>
-  <si>
-    <t>HU-01 listo</t>
-  </si>
-  <si>
-    <t>Conexión a BD para registro (SQLite)</t>
-  </si>
-  <si>
-    <t>P0</t>
-  </si>
-  <si>
-    <t>Sebastian Medina</t>
-  </si>
-  <si>
-    <t>Diseño UI de login</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>Hector Domingo</t>
-  </si>
-  <si>
-    <t>HU-02 listo</t>
-  </si>
-  <si>
-    <t>Manejo de sesión y expiración</t>
-  </si>
-  <si>
-    <t>SMTP de pruebas para recuperación</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>Luis Troncoso</t>
-  </si>
-  <si>
-    <t>HU-03 listo</t>
+    <t>Arquitectura</t>
+  </si>
+  <si>
+    <t>Se esperaban confirmaciones sobre módulos a incluir.</t>
+  </si>
+  <si>
+    <t>Prototipo de interfaz</t>
+  </si>
+  <si>
+    <t>Diseño visual</t>
+  </si>
+  <si>
+    <t>El prototipo debió reestructurarse al recibir el logo.</t>
+  </si>
+  <si>
+    <t>Estructura inicial del sitio y mapa de navegación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baja </t>
+  </si>
+  <si>
+    <t>Mapa del sitio</t>
+  </si>
+  <si>
+    <t>Se ajustaron nombres y ubicación de secciones.</t>
+  </si>
+  <si>
+    <t>Definición del módulo de productos</t>
+  </si>
+  <si>
+    <t>Backlog técnico</t>
+  </si>
+  <si>
+    <t>Cliente no tenía claro el número de categorías.</t>
+  </si>
+  <si>
+    <t>Ajustes de diseño inicial</t>
+  </si>
+  <si>
+    <t>Diseño UI</t>
+  </si>
+  <si>
+    <t>Se usaron imágenes temporales hasta recibir las finales.</t>
+  </si>
+  <si>
+    <t>Coordinación interna y revisión de tareas</t>
+  </si>
+  <si>
+    <t>Flujo de trabajo</t>
+  </si>
+  <si>
+    <t>Se ajustó mejor el uso de Trello/Jira.</t>
+  </si>
+  <si>
+    <t>Refinamiento del backlog y objetivos</t>
+  </si>
+  <si>
+    <t>Refinamiento del Sprint 1</t>
+  </si>
+  <si>
+    <t>Ajustes leves pero necesarios para alinear expectativas.</t>
+  </si>
+  <si>
+    <t>Análisis del módulo Flow</t>
+  </si>
+  <si>
+    <t>Arquitectura final</t>
+  </si>
+  <si>
+    <t>Cliente debía confirmar si Flow era el método oficial.</t>
+  </si>
+  <si>
+    <t>Rediseño del prototipo</t>
+  </si>
+  <si>
+    <t>Prototipo final</t>
+  </si>
+  <si>
+    <t>Se ajustó tipografía y estilo general.</t>
+  </si>
+  <si>
+    <t>Reconfiguración del mapa del sitio</t>
+  </si>
+  <si>
+    <t>Planificación del Sprint 2</t>
+  </si>
+  <si>
+    <t>No afectó el calendario críticamente.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="d/MM/yyyy"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/MM/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15.0"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -136,15 +218,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -155,22 +234,28 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -248,8 +333,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A4:G18" displayName="EURO_ELITE" name="EURO_ELITE" id="1">
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H19" displayName="Tareas_del_proyecto" name="Tareas_del_proyecto" id="1">
+  <tableColumns count="8">
     <tableColumn name="Tarea" id="1"/>
     <tableColumn name="Prioridad" id="2"/>
     <tableColumn name="Propietario" id="3"/>
@@ -257,6 +342,7 @@
     <tableColumn name="Fecha de inicio" id="5"/>
     <tableColumn name="Fecha de finalización" id="6"/>
     <tableColumn name="Hito" id="7"/>
+    <tableColumn name="Notas" id="8"/>
   </tableColumns>
   <tableStyleInfo name="Hoja 1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -463,275 +549,445 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4.0" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B6" sqref="B6" pane="bottomLeft"/>
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.63"/>
-    <col customWidth="1" min="2" max="4" width="15.13"/>
-    <col customWidth="1" min="5" max="7" width="20.13"/>
+    <col customWidth="1" min="1" max="1" width="51.13"/>
+    <col customWidth="1" min="2" max="2" width="16.88"/>
+    <col customWidth="1" min="3" max="3" width="19.88"/>
+    <col customWidth="1" min="4" max="4" width="15.13"/>
+    <col customWidth="1" min="5" max="6" width="20.13"/>
+    <col customWidth="1" min="7" max="7" width="23.38"/>
+    <col customWidth="1" min="8" max="8" width="68.38"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5">
+        <v>45895.0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45897.0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="22.5" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45895.0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>45898.0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5">
+        <v>45896.0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>45899.0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>7</v>
+        <v>21</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45896.0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>45900.0</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" ht="22.5" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5">
+        <v>45897.0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>45901.0</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" ht="22.5" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="8">
-        <v>45895.0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>45896.0</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" ht="22.5" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5">
+        <v>45899.0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>45902.0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" ht="22.5" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="8">
-        <v>45895.0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>45895.0</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" ht="22.5" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5">
+        <v>45901.0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>45903.0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" ht="22.5" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5">
+        <v>45902.0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>45904.0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" ht="22.5" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="8">
-        <v>45897.0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>45898.0</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" ht="22.5" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5">
+        <v>45902.0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>45905.0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" ht="22.5" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="9">
+        <v>45903.0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>45906.0</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" ht="22.5" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="9">
+        <v>45904.0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>45907.0</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" ht="22.5" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="8">
-        <v>45899.0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>45901.0</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" ht="22.5" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="8">
-        <v>45904.0</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="D13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="9">
+        <v>45905.0</v>
+      </c>
+      <c r="F13" s="9">
         <v>45908.0</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" ht="22.5" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" ht="22.5" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" ht="22.5" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" ht="22.5" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="9"/>
+      <c r="G13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" ht="22.5" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="9"/>
+      <c r="A14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="9">
+        <v>45906.0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>45909.0</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="15" ht="22.5" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" ht="22.5" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" ht="22.5" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="9"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" ht="22.5" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="9"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E5:F18">
-      <formula1>OR(NOT(ISERROR(DATEVALUE(E5))), AND(ISNUMBER(E5), LEFT(CELL("format", E5))="D"))</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:F19">
+      <formula1>OR(NOT(ISERROR(DATEVALUE(E2))), AND(ISNUMBER(E2), LEFT(CELL("format", E2))="D"))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="A5:A18 G5:G18"/>
-    <dataValidation type="list" allowBlank="1" sqref="B5:B18">
-      <formula1>"P0,P1,P2,P3"</formula1>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A19 G2:H19"/>
+    <dataValidation type="list" allowBlank="1" sqref="B2:B19">
+      <formula1>"Baja ,Media,Alta"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D5:D18">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D19">
       <formula1>"No iniciada,En curso,Bloqueada,Completada"</formula1>
     </dataValidation>
   </dataValidations>
